--- a/arsel/data_ar/GridWithinGrid/CheckCellValue/CRILC_v3_ExpectedValue.xlsx
+++ b/arsel/data_ar/GridWithinGrid/CheckCellValue/CRILC_v3_ExpectedValue.xlsx
@@ -148,12 +148,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -510,7 +515,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,7 +559,7 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5"/>
@@ -570,7 +575,7 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="7"/>
@@ -586,7 +591,7 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="58" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9"/>
@@ -602,7 +607,7 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="58" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="11"/>
@@ -618,7 +623,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="13"/>
@@ -634,7 +639,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="15"/>
@@ -650,7 +655,7 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="17"/>
@@ -666,7 +671,7 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="58" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="19"/>
@@ -682,7 +687,7 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="58" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="21"/>
@@ -698,7 +703,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="23"/>
@@ -714,7 +719,7 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="25"/>
@@ -730,7 +735,7 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="27"/>
@@ -746,7 +751,7 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="29"/>
@@ -762,7 +767,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="31"/>
@@ -778,7 +783,7 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="33"/>
@@ -794,11 +799,11 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="58" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="35"/>
-      <c r="F17" s="53"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -810,11 +815,11 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="53"/>
+      <c r="D18" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -826,11 +831,11 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="53"/>
+      <c r="D19" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
@@ -842,11 +847,11 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="53"/>
+      <c r="D20" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -858,11 +863,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -874,11 +879,11 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -890,11 +895,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -906,11 +911,11 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -922,11 +927,11 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -938,11 +943,11 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -954,11 +959,11 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -970,11 +975,11 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F7">
